--- a/Livestock Detail - 2024.xlsx
+++ b/Livestock Detail - 2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.103.190\cp - 1\CP - 1\Sample Data for workpapers\LST\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.103.190\cp - 1\CP - 1\Sample Data for workpapers\LST\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728DC1E1-6A8A-4C95-9495-28DE795B40CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877F6EFB-2777-4970-8558-2515AD4CC38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{44C7A7A2-9C0C-4735-B578-B736D5046F78}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Cattle</t>
   </si>
@@ -74,13 +74,16 @@
     <t xml:space="preserve">      </t>
   </si>
   <si>
-    <t>Bottlejac Trading Pty Ltd</t>
-  </si>
-  <si>
     <t>Opening Stock at 1 July 2023</t>
   </si>
   <si>
     <t>Closing Stock at 30 June 2024</t>
+  </si>
+  <si>
+    <t>CP &amp; SA Webster</t>
+  </si>
+  <si>
+    <t>Horses</t>
   </si>
 </sst>
 </file>
@@ -361,6 +364,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -368,21 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -719,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CD730B-81E4-4E9C-8992-6894DB2087E0}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -731,7 +734,9 @@
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
     <col min="4" max="11" width="11.125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="256" width="9" style="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="11.125" style="1" customWidth="1"/>
+    <col min="14" max="256" width="9" style="1"/>
     <col min="257" max="257" width="8" style="1" customWidth="1"/>
     <col min="258" max="258" width="16" style="1" customWidth="1"/>
     <col min="259" max="259" width="11.125" style="1" customWidth="1"/>
@@ -1049,23 +1054,23 @@
     <col min="16140" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -1087,10 +1092,13 @@
       <c r="K4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="M4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
@@ -1110,14 +1118,17 @@
       <c r="K5" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="11">
-        <v>1761</v>
+        <v>1308</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="11">
@@ -1135,11 +1146,14 @@
       <c r="K6" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+      <c r="M6" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="12"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
@@ -1149,13 +1163,13 @@
       <c r="J7" s="13"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="11">
-        <v>24713</v>
+        <v>23</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="11"/>
@@ -1165,11 +1179,14 @@
       <c r="I8" s="11"/>
       <c r="J8" s="13"/>
       <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="M8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="12"/>
       <c r="E9" s="15"/>
       <c r="F9" s="13"/>
@@ -1179,10 +1196,10 @@
       <c r="J9" s="13"/>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="12"/>
       <c r="E10" s="15"/>
       <c r="F10" s="13"/>
@@ -1192,13 +1209,13 @@
       <c r="J10" s="13"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="11">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11"/>
@@ -1208,11 +1225,14 @@
       <c r="I11" s="11"/>
       <c r="J11" s="13"/>
       <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="12"/>
       <c r="E12" s="15"/>
       <c r="F12" s="13"/>
@@ -1222,10 +1242,10 @@
       <c r="J12" s="13"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="12"/>
       <c r="E13" s="15"/>
       <c r="F13" s="13"/>
@@ -1235,13 +1255,13 @@
       <c r="J13" s="13"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="11">
-        <v>19009</v>
+        <v>853</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
@@ -1251,11 +1271,14 @@
       <c r="I14" s="11"/>
       <c r="J14" s="13"/>
       <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="12"/>
       <c r="E15" s="15"/>
       <c r="F15" s="13"/>
@@ -1265,11 +1288,11 @@
       <c r="J15" s="13"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="11">
         <v>0</v>
       </c>
@@ -1281,11 +1304,14 @@
       <c r="I16" s="11"/>
       <c r="J16" s="13"/>
       <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="12"/>
       <c r="E17" s="15"/>
       <c r="F17" s="13"/>
@@ -1295,11 +1321,11 @@
       <c r="J17" s="13"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="11">
         <v>0</v>
       </c>
@@ -1311,11 +1337,14 @@
       <c r="I18" s="11"/>
       <c r="J18" s="13"/>
       <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="12"/>
       <c r="E19" s="18"/>
       <c r="F19" s="13"/>
@@ -1325,14 +1354,14 @@
       <c r="J19" s="13"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="19">
         <f>C6+C8+C11-C14-C16-C18</f>
-        <v>7465</v>
+        <v>2008</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="21">
@@ -1354,11 +1383,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="26"/>
+      <c r="M20" s="19">
+        <f>M6+M8+M11-M14-M16-M18</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="12"/>
       <c r="E21" s="23" t="s">
         <v>11</v>
@@ -1378,12 +1411,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A21:C21"/>
@@ -1393,6 +1420,12 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
